--- a/CalculationsUpdated.xlsx
+++ b/CalculationsUpdated.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTCN\Year_4\SEM2\CPNP\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\UTCN\Year_4\SEM2\CPNP\Repo\Proiect-CPNP\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E7FE9E47-4E40-4C96-A42E-CB21C86DF015}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{693039CD-66D8-490A-A70A-C3AA4CB47945}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Cable calculations" sheetId="1" r:id="rId1"/>
@@ -553,15 +553,15 @@
     <t>$22,675.99</t>
   </si>
   <si>
-    <t>https://www.flax.ro/switch-cisco-catalyst-c9300x-48hx-a-48-porturi-upoe</t>
-  </si>
-  <si>
     <t>48 port Cisco UPOE+, 48x 10G Multigigabit
 (10G/5G/2.5G/1G/100M) with 90W UPOE+</t>
   </si>
   <si>
     <t xml:space="preserve">Cisco C9300X-48HX
 </t>
+  </si>
+  <si>
+    <t>https://www.cisco.com/c/en/us/products/collateral/switches/catalyst-9300-series-switches/nb-06-cat9300-ser-data-sheet-cte-en.html https://www.flax.ro/switch-cisco-catalyst-c9300x-48hx-a-48-porturi-upoe</t>
   </si>
 </sst>
 </file>
@@ -740,7 +740,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -769,6 +769,13 @@
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="1" applyFont="1"/>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -778,14 +785,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1124,7 +1123,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:L107"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A65" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="G97" sqref="G97"/>
     </sheetView>
   </sheetViews>
@@ -1144,19 +1143,19 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="18" x14ac:dyDescent="0.35">
-      <c r="A1" s="19" t="s">
+      <c r="A1" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="B1" s="19"/>
-      <c r="C1" s="19"/>
-      <c r="D1" s="19"/>
-      <c r="E1" s="19"/>
+      <c r="B1" s="22"/>
+      <c r="C1" s="22"/>
+      <c r="D1" s="22"/>
+      <c r="E1" s="22"/>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
+      <c r="A2" s="21"/>
+      <c r="B2" s="21"/>
+      <c r="C2" s="21"/>
+      <c r="D2" s="21"/>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
@@ -1169,19 +1168,19 @@
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A7" s="18" t="s">
+      <c r="A7" s="21" t="s">
         <v>38</v>
       </c>
-      <c r="B7" s="18"/>
-      <c r="C7" s="18"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
       <c r="E7" s="5"/>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A8" s="18" t="s">
+      <c r="A8" s="21" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="18"/>
-      <c r="C8" s="18"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
@@ -1189,12 +1188,12 @@
       <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.3">
-      <c r="A10" s="18" t="s">
+      <c r="A10" s="21" t="s">
         <v>35</v>
       </c>
-      <c r="B10" s="18"/>
-      <c r="C10" s="18"/>
-      <c r="D10" s="18"/>
+      <c r="B10" s="21"/>
+      <c r="C10" s="21"/>
+      <c r="D10" s="21"/>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -3852,8 +3851,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FA837CA2-3D9E-4EB2-AF47-6C89AB1F7D60}">
   <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4260,8 +4259,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6F91D44-F9DE-40FC-932A-19DA19B4DB91}">
   <dimension ref="A1:Q27"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="D25" sqref="D25:N27"/>
+    <sheetView zoomScale="94" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -4312,13 +4311,13 @@
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A9" s="24" t="s">
+      <c r="A9" t="s">
         <v>133</v>
       </c>
       <c r="B9" t="s">
         <v>139</v>
       </c>
-      <c r="C9" s="21" t="s">
+      <c r="C9" s="18" t="s">
         <v>138</v>
       </c>
       <c r="D9" t="s">
@@ -4340,17 +4339,17 @@
       </c>
     </row>
     <row r="11" spans="1:4" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="23" t="s">
-        <v>173</v>
+      <c r="A11" s="20" t="s">
+        <v>172</v>
       </c>
       <c r="B11" t="s">
         <v>170</v>
       </c>
-      <c r="C11" s="21" t="s">
+      <c r="C11" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="D11" s="19" t="s">
         <v>171</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>172</v>
       </c>
     </row>
     <row r="12" spans="1:4" ht="15.6" x14ac:dyDescent="0.3">
@@ -4500,19 +4499,19 @@
       <c r="C25" s="16" t="s">
         <v>146</v>
       </c>
-      <c r="D25" s="20" t="s">
+      <c r="D25" s="23" t="s">
         <v>143</v>
       </c>
-      <c r="E25" s="20"/>
-      <c r="F25" s="20"/>
-      <c r="G25" s="20"/>
-      <c r="H25" s="20"/>
-      <c r="I25" s="20"/>
-      <c r="J25" s="20"/>
-      <c r="K25" s="20"/>
-      <c r="L25" s="20"/>
-      <c r="M25" s="20"/>
-      <c r="N25" s="20"/>
+      <c r="E25" s="23"/>
+      <c r="F25" s="23"/>
+      <c r="G25" s="23"/>
+      <c r="H25" s="23"/>
+      <c r="I25" s="23"/>
+      <c r="J25" s="23"/>
+      <c r="K25" s="23"/>
+      <c r="L25" s="23"/>
+      <c r="M25" s="23"/>
+      <c r="N25" s="23"/>
       <c r="O25" s="1"/>
       <c r="P25" s="1"/>
       <c r="Q25" s="1"/>
@@ -4521,17 +4520,17 @@
       <c r="C26" s="16" t="s">
         <v>147</v>
       </c>
-      <c r="D26" s="20"/>
-      <c r="E26" s="20"/>
-      <c r="F26" s="20"/>
-      <c r="G26" s="20"/>
-      <c r="H26" s="20"/>
-      <c r="I26" s="20"/>
-      <c r="J26" s="20"/>
-      <c r="K26" s="20"/>
-      <c r="L26" s="20"/>
-      <c r="M26" s="20"/>
-      <c r="N26" s="20"/>
+      <c r="D26" s="23"/>
+      <c r="E26" s="23"/>
+      <c r="F26" s="23"/>
+      <c r="G26" s="23"/>
+      <c r="H26" s="23"/>
+      <c r="I26" s="23"/>
+      <c r="J26" s="23"/>
+      <c r="K26" s="23"/>
+      <c r="L26" s="23"/>
+      <c r="M26" s="23"/>
+      <c r="N26" s="23"/>
       <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
@@ -4540,17 +4539,17 @@
       <c r="C27" s="16" t="s">
         <v>148</v>
       </c>
-      <c r="D27" s="20"/>
-      <c r="E27" s="20"/>
-      <c r="F27" s="20"/>
-      <c r="G27" s="20"/>
-      <c r="H27" s="20"/>
-      <c r="I27" s="20"/>
-      <c r="J27" s="20"/>
-      <c r="K27" s="20"/>
-      <c r="L27" s="20"/>
-      <c r="M27" s="20"/>
-      <c r="N27" s="20"/>
+      <c r="D27" s="23"/>
+      <c r="E27" s="23"/>
+      <c r="F27" s="23"/>
+      <c r="G27" s="23"/>
+      <c r="H27" s="23"/>
+      <c r="I27" s="23"/>
+      <c r="J27" s="23"/>
+      <c r="K27" s="23"/>
+      <c r="L27" s="23"/>
+      <c r="M27" s="23"/>
+      <c r="N27" s="23"/>
       <c r="O27" s="1"/>
       <c r="P27" s="1"/>
       <c r="Q27" s="1"/>
@@ -4570,7 +4569,7 @@
     <hyperlink ref="C27" r:id="rId8" xr:uid="{61F9F295-0985-42BB-912E-BDA0C470ACEB}"/>
     <hyperlink ref="C19" r:id="rId9" xr:uid="{ECCD9621-B9CB-42F8-9CB5-9F8DEF0879E3}"/>
     <hyperlink ref="C20" r:id="rId10" xr:uid="{833F4F48-2814-4D15-AED1-A96BC35D176E}"/>
-    <hyperlink ref="C11" r:id="rId11" xr:uid="{D43C90FD-EA68-47FA-9C4D-F2343600DA05}"/>
+    <hyperlink ref="C11" r:id="rId11" display="https://www.cisco.com/c/en/us/products/collateral/switches/catalyst-9300-series-switches/nb-06-cat9300-ser-data-sheet-cte-en.htmlhttps://www.flax.ro/switch-cisco-catalyst-c9300x-48hx-a-48-porturi-upoe" xr:uid="{D43C90FD-EA68-47FA-9C4D-F2343600DA05}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
